--- a/forwardprimer-v3_11.xlsx
+++ b/forwardprimer-v3_11.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="forwardprimer-v3_11" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>F0961-TGTCTGTTCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTCTGTTCGTCGTCGGCAGCGTC</t>
+    <t>F0961-GGAGCTTGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGAGCTTGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>F0962-AGCTCGTAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGCTCGTAGTTCGTCGGCAGCGTC</t>
+    <t>F0962-TCCTTCTCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCTTCTCATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>F0963-ACTCATCCAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTCATCCAGTCGTCGGCAGCGTC</t>
+    <t>F0963-AGTGTCTCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTGTCTCTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>F0964-CATGTTCTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATGTTCTTGTCGTCGGCAGCGTC</t>
+    <t>F0964-ACATCCACTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACATCCACTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>F0965-CCTGAACAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCTGAACAGATCGTCGGCAGCGTC</t>
+    <t>F0965-ACTCCACTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTCCACTAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>F0966-GTAGTCTGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTAGTCTGAGTCGTCGGCAGCGTC</t>
+    <t>F0966-GTTCTTCAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTCTTCAGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>F0967-ATGAACGAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGAACGAGATCGTCGGCAGCGTC</t>
+    <t>F0967-TGCAGACATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGCAGACATGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>F0968-AAGAAGACGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGAAGACGTTCGTCGGCAGCGTC</t>
+    <t>F0968-CAGTTCAGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGTTCAGTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>F0969-TTCGATGCTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCGATGCTGTCGTCGGCAGCGTC</t>
+    <t>F0969-CAAGAGTTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAAGAGTTGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>F0970-TGTGAGCTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTGAGCTCTTCGTCGGCAGCGTC</t>
+    <t>F0970-GTCCATGATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCCATGATCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>F0971-TGGACGAGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGGACGAGTATCGTCGGCAGCGTC</t>
+    <t>F0971-AGTTGTCCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTTGTCCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>F0972-ATCAGATCAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCAGATCAGTCGTCGGCAGCGTC</t>
+    <t>F0972-CTAGGAGTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTAGGAGTCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>F0973-ACATCAGCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACATCAGCTATCGTCGGCAGCGTC</t>
+    <t>F0973-AGTCACTACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTCACTACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>F0974-TGGAAGAGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGGAAGAGCTTCGTCGGCAGCGTC</t>
+    <t>F0974-AGGACTAGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGACTAGTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>F0975-GTACTAGACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTACTAGACGTCGTCGGCAGCGTC</t>
+    <t>F0975-ATCCTCCTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCCTCCTGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>F0976-CTCTTCGAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCTTCGAAGTCGTCGGCAGCGTC</t>
+    <t>F0976-CGAACCACAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGAACCACATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>F0977-AAGTACAGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGTACAGAGTCGTCGGCAGCGTC</t>
+    <t>F0977-TACATCACTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACATCACTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>F0978-ATCAAGGTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCAAGGTCTTCGTCGGCAGCGTC</t>
+    <t>F0978-AACAACAACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACAACAACCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>F0979-GTCTACACCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCTACACCTTCGTCGGCAGCGTC</t>
+    <t>F0979-AGGATCCATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGATCCATGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>F0980-CTCTGGTCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCTGGTCTTTCGTCGGCAGCGTC</t>
+    <t>F0980-GATGAGTGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATGAGTGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>F0981-GATGTCGATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATGTCGATCTCGTCGGCAGCGTC</t>
+    <t>F0981-GAAGGTACAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAAGGTACATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B10</t>
   </si>
   <si>
-    <t>F0982-GATCTGACTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATCTGACTCTCGTCGGCAGCGTC</t>
+    <t>F0982-TTGGAGGATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGGAGGATCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B11</t>
   </si>
   <si>
-    <t>F0983-GATGACAACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATGACAACCTCGTCGGCAGCGTC</t>
+    <t>F0983-GGATCAGCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGATCAGCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B12</t>
   </si>
   <si>
-    <t>F0984-CATGAAGTGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATGAAGTGGTCGTCGGCAGCGTC</t>
+    <t>F0984-CTAGGTGAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTAGGTGAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>F0985-CATCTTGCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATCTTGCTATCGTCGGCAGCGTC</t>
+    <t>F0985-GCATGATCCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCATGATCCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>F0986-CATGCTACGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATGCTACGATCGTCGGCAGCGTC</t>
+    <t>F0986-TACACTGACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACACTGACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>F0987-TGGTAGTAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGGTAGTAGATCGTCGGCAGCGTC</t>
+    <t>F0987-TCGTGTGCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCGTGTGCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>F0988-CCTAGTGTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCTAGTGTCATCGTCGGCAGCGTC</t>
+    <t>F0988-ATGCACAAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGCACAAGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>F0989-AGTGTACCAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTGTACCAGTCGTCGGCAGCGTC</t>
+    <t>F0989-CTCATCCTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCATCCTACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>F0990-CAAGGAACGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAAGGAACGATCGTCGGCAGCGTC</t>
+    <t>F0990-CTCACCTGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCACCTGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>F0991-CTGAAGTCTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGAAGTCTGTCGTCGGCAGCGTC</t>
+    <t>F0991-AAGCAGTGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGCAGTGACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
-    <t>F0992-TTGGTTCTGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGGTTCTGCTCGTCGGCAGCGTC</t>
+    <t>F0992-TGTCTACACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTCTACACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C9</t>
   </si>
   <si>
-    <t>F0993-CTCAGATGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCAGATGTTTCGTCGGCAGCGTC</t>
+    <t>F0993-TACGAGACAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACGAGACAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C10</t>
   </si>
   <si>
-    <t>F0994-ACTACTCTCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTACTCTCGTCGTCGGCAGCGTC</t>
+    <t>F0994-TCAGCTTGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAGCTTGCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C11</t>
   </si>
   <si>
-    <t>F0995-ACTCCACTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTCCACTAGTCGTCGGCAGCGTC</t>
+    <t>F0995-AACTGTCCTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACTGTCCTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C12</t>
   </si>
   <si>
-    <t>F0996-TGCTCTCATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGCTCTCATCTCGTCGGCAGCGTC</t>
+    <t>F0996-GTGTACTAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGTACTAGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>F0997-GTACACCATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTACACCATCTCGTCGGCAGCGTC</t>
+    <t>F0997-ATCGTGGAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCGTGGAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>F0998-AACACTACGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACACTACGATCGTCGGCAGCGTC</t>
+    <t>F0998-CGTTGAAGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGTTGAAGACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>F0999-AACACTCAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACACTCAGCTCGTCGGCAGCGTC</t>
+    <t>F0999-TTCTTCCTGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCTTCCTGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
-    <t>F1000-CCATCGATCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCATCGATCATCGTCGGCAGCGTC</t>
+    <t>F1000-ACTAGCAAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTAGCAAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D5</t>
   </si>
   <si>
-    <t>F1001-AGCTGGTGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGCTGGTGTTTCGTCGGCAGCGTC</t>
+    <t>F1001-TACAGACCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACAGACCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D6</t>
   </si>
   <si>
-    <t>F1002-AAGGAACACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGGAACACCTCGTCGGCAGCGTC</t>
+    <t>F1002-TAGCACTCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGCACTCATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D7</t>
   </si>
   <si>
-    <t>F1003-TGAGGACAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAGGACAAGTCGTCGGCAGCGTC</t>
+    <t>F1003-GTACCTGACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTACCTGACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D8</t>
   </si>
   <si>
-    <t>F1004-CTAGAGTGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTAGAGTGGATCGTCGGCAGCGTC</t>
+    <t>F1004-AGAGACCTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAGACCTAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D9</t>
   </si>
   <si>
-    <t>F1005-ACTCACTGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTCACTGTGTCGTCGGCAGCGTC</t>
+    <t>F1005-ATCCTACAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCCTACAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D10</t>
   </si>
   <si>
-    <t>F1006-AAGAACTCGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGAACTCGATCGTCGGCAGCGTC</t>
+    <t>F1006-TCCAGACTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCAGACTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D11</t>
   </si>
   <si>
-    <t>F1007-CTTGACCACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTTGACCACTTCGTCGGCAGCGTC</t>
+    <t>F1007-AGTGGTAGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTGGTAGTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D12</t>
   </si>
   <si>
-    <t>F1008-GTACATGTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTACATGTCTTCGTCGGCAGCGTC</t>
+    <t>F1008-TCTCTGGATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTCTGGATGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E1</t>
   </si>
   <si>
-    <t>F1009-CTAGACTCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTAGACTCTATCGTCGGCAGCGTC</t>
+    <t>F1009-TACTCTCAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACTCTCAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E2</t>
   </si>
   <si>
-    <t>F1010-TACACTCTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACACTCTGATCGTCGGCAGCGTC</t>
+    <t>F1010-AAGTAGGTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGTAGGTACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E3</t>
   </si>
   <si>
-    <t>F1011-CATCTCAACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATCTCAACTTCGTCGGCAGCGTC</t>
+    <t>F1011-ACTTCTGTGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTTCTGTGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E4</t>
   </si>
   <si>
-    <t>F1012-ATGGACGTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGGACGTACTCGTCGGCAGCGTC</t>
+    <t>F1012-GGATGAGGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGATGAGGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E5</t>
   </si>
   <si>
-    <t>F1013-CGTCTACCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGTCTACCTATCGTCGGCAGCGTC</t>
+    <t>F1013-GTTGACATGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTGACATGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E6</t>
   </si>
   <si>
-    <t>F1014-ATGGTAGAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGGTAGAGCTCGTCGGCAGCGTC</t>
+    <t>F1014-TCATGAAGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCATGAAGCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E7</t>
   </si>
   <si>
-    <t>F1015-AGCTTGAAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGCTTGAAGCTCGTCGGCAGCGTC</t>
+    <t>F1015-TACTAGCAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACTAGCAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E8</t>
   </si>
   <si>
-    <t>F1016-TCACCAGATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCACCAGATGTCGTCGGCAGCGTC</t>
+    <t>F1016-TAGGAAGGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGGAAGGTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E9</t>
   </si>
   <si>
-    <t>F1017-TACAGAGTCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACAGAGTCGTCGTCGGCAGCGTC</t>
+    <t>F1017-GTGTCTGGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGTCTGGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E10</t>
   </si>
   <si>
-    <t>F1018-TACACATGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACACATGTGTCGTCGGCAGCGTC</t>
+    <t>F1018-AGACTCTTGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGACTCTTGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E11</t>
   </si>
   <si>
-    <t>F1019-TGGAGTGTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGGAGTGTCATCGTCGGCAGCGTC</t>
+    <t>F1019-TCCTTCCAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCTTCCAACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E12</t>
   </si>
   <si>
-    <t>F1020-GTCTAGGTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCTAGGTTCTCGTCGGCAGCGTC</t>
+    <t>F1020-TAGTCCATCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGTCCATCGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>F1021-AAGTCCAGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGTCCAGCTTCGTCGGCAGCGTC</t>
+    <t>F1021-GTGACTGCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGACTGCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F2</t>
   </si>
   <si>
-    <t>F1022-AGAACTGCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAACTGCATTCGTCGGCAGCGTC</t>
+    <t>F1022-CCAAGACTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCAAGACTTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F3</t>
   </si>
   <si>
-    <t>F1023-TACGACCTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACGACCTGATCGTCGGCAGCGTC</t>
+    <t>F1023-TGACATCTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGACATCTACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F4</t>
   </si>
   <si>
-    <t>F1024-TCTGAAGACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTGAAGACGTCGTCGGCAGCGTC</t>
+    <t>F1024-AGACTCACAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGACTCACATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F5</t>
   </si>
   <si>
-    <t>F1025-GCATGGATGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCATGGATGTTCGTCGGCAGCGTC</t>
+    <t>F1025-ACACACAACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACACACAACCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F6</t>
   </si>
   <si>
-    <t>F1026-GTGTGTTGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGTGTTGACTCGTCGGCAGCGTC</t>
+    <t>F1026-ACTCATGCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTCATGCTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F7</t>
   </si>
   <si>
-    <t>F1027-GACTACAGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACTACAGTATCGTCGGCAGCGTC</t>
+    <t>F1027-TGGTGATGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGGTGATGACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F8</t>
   </si>
   <si>
-    <t>F1028-CAACTGATCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAACTGATCTTCGTCGGCAGCGTC</t>
+    <t>F1028-GTGTCACATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGTCACATGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F9</t>
   </si>
   <si>
-    <t>F1029-TGTCTACGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTCTACGTCTCGTCGGCAGCGTC</t>
+    <t>F1029-AGAACCTCAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAACCTCAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F10</t>
   </si>
   <si>
-    <t>F1030-AAGGACTCAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGGACTCACTCGTCGGCAGCGTC</t>
+    <t>F1030-GAAGGTTCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAAGGTTCTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F11</t>
   </si>
   <si>
-    <t>F1031-TCGACACAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCGACACAAGTCGTCGGCAGCGTC</t>
+    <t>F1031-GTAGACGTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTAGACGTTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F12</t>
   </si>
   <si>
-    <t>F1032-GAACAGAACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACAGAACGTCGTCGGCAGCGTC</t>
+    <t>F1032-AGATCTTGCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGATCTTGCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G1</t>
   </si>
   <si>
-    <t>F1033-CATGGAGCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATGGAGCTATCGTCGGCAGCGTC</t>
+    <t>F1033-ATGTGCAACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGTGCAACCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G2</t>
   </si>
   <si>
-    <t>F1034-CTAGCACCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTAGCACCTTTCGTCGGCAGCGTC</t>
+    <t>F1034-CAAGTTGACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAAGTTGACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G3</t>
   </si>
   <si>
-    <t>F1035-GGACTGAACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGACTGAACTTCGTCGGCAGCGTC</t>
+    <t>F1035-AACGTCACGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACGTCACGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G4</t>
   </si>
   <si>
-    <t>F1036-GCTTGGACTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCTTGGACTTTCGTCGGCAGCGTC</t>
+    <t>F1036-CAACTCATGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAACTCATGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G5</t>
   </si>
   <si>
-    <t>F1037-GAGTGAGATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGTGAGATCTCGTCGGCAGCGTC</t>
+    <t>F1037-GTCACAGGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCACAGGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G6</t>
   </si>
   <si>
-    <t>F1038-ACGTCGAAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACGTCGAAGTTCGTCGGCAGCGTC</t>
+    <t>F1038-CTTGCATGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTTGCATGACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G7</t>
   </si>
   <si>
-    <t>F1039-TCAGGTTCGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAGGTTCGATCGTCGGCAGCGTC</t>
+    <t>F1039-CATGCTCGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATGCTCGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G8</t>
   </si>
   <si>
-    <t>F1040-GGATCAGCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGATCAGCAATCGTCGGCAGCGTC</t>
+    <t>F1040-AACTTGTCAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACTTGTCACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G9</t>
   </si>
   <si>
-    <t>F1041-GAAGTCACTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAAGTCACTCTCGTCGGCAGCGTC</t>
+    <t>F1041-CTCTCATGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCTCATGCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G10</t>
   </si>
   <si>
-    <t>F1042-AGACTGAGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGACTGAGAGTCGTCGGCAGCGTC</t>
+    <t>F1042-ACATCCTGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACATCCTGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G11</t>
   </si>
   <si>
-    <t>F1043-TGTTCCTGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTTCCTGACTCGTCGGCAGCGTC</t>
+    <t>F1043-CTTGGTGCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTTGGTGCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G12</t>
   </si>
   <si>
-    <t>F1044-TCAACTACCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAACTACCTTCGTCGGCAGCGTC</t>
+    <t>F1044-CCTACTGCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCTACTGCTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>F1045-CTGTGCTTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGTGCTTCTTCGTCGGCAGCGTC</t>
+    <t>F1045-TACAACGAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACAACGAGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>F1046-AGACACGTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGACACGTGATCGTCGGCAGCGTC</t>
+    <t>F1046-ATGCTACATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGCTACATGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>F1047-TACTCAGTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACTCAGTCTTCGTCGGCAGCGTC</t>
+    <t>F1047-TGAACACGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAACACGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>F1048-ATCGTACCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCGTACCAATCGTCGGCAGCGTC</t>
+    <t>F1048-CTAGCTTCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTAGCTTCATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>F1049-GAAGAACAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAAGAACAGGTCGTCGGCAGCGTC</t>
+    <t>F1049-ACTAGACTGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTAGACTGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>F1050-AACACGTCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACACGTCAATCGTCGGCAGCGTC</t>
+    <t>F1050-TACTGAAGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACTGAAGTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>F1051-GAAGTAGGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAAGTAGGTATCGTCGGCAGCGTC</t>
+    <t>F1051-TGTTGGACCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTTGGACCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>F1052-AGAACGTGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAACGTGATTCGTCGGCAGCGTC</t>
+    <t>F1052-CGAGTGTGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGAGTGTGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>F1053-GAACAAGTCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACAAGTCCTCGTCGGCAGCGTC</t>
+    <t>F1053-TTCTCTTCTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCTCTTCTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>F1054-GGAAGGATCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGAAGGATCTTCGTCGGCAGCGTC</t>
+    <t>F1054-GTCATCTACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCATCTACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>F1055-TGCTACTAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGCTACTAGGTCGTCGGCAGCGTC</t>
+    <t>F1055-AACTTGCAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACTTGCAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>F1056-ATGTCCTCGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGTCCTCGATCGTCGGCAGCGTC</t>
+    <t>F1056-GATGCTTCCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATGCTTCCATCGTCGGCAGCGTC</t>
   </si>
 </sst>
 </file>
